--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -423,342 +423,342 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.16190757082169</v>
+        <v>0.1619081784284657</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1850281317379298</v>
+        <v>0.1945208102290912</v>
       </c>
       <c r="C1" t="n">
-        <v>0.6717113512831653</v>
+        <v>0.672860002190442</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7140570396001485</v>
+        <v>0.7034158221868738</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796297367793</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.408888756016759</v>
+        <v>-1.408888145739562</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2073990792364511</v>
+        <v>0.2074942785077096</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1850138075818104</v>
+        <v>0.1934383557349265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6717508815605566</v>
+        <v>0.6758762528771421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7140317997078695</v>
+        <v>0.7014819866207826</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796302231175</v>
+        <v>1.570796286790826</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.363397248118811</v>
+        <v>-1.363302046435018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4112311970506569</v>
+        <v>0.4117502296915038</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1849496258657176</v>
+        <v>0.1885882419516801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6719280034111886</v>
+        <v>0.6893910556777709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7139187082568288</v>
+        <v>0.6928171211837666</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796324022349</v>
+        <v>1.570796313304808</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.159565132620272</v>
+        <v>-1.159046098722391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6980036340740955</v>
+        <v>0.6991189600253006</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1848593282848769</v>
+        <v>0.1817645923503434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67217719703828</v>
+        <v>0.7084051000618862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7137595993226273</v>
+        <v>0.6806264781953137</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796354680461</v>
+        <v>1.570796350607462</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8727926988547555</v>
+        <v>-0.8716773732721977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9018357518883018</v>
+        <v>0.9033749112090953</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1847951465687841</v>
+        <v>0.176914478567097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6723543188889121</v>
+        <v>0.7219199028625151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7136465078715867</v>
+        <v>0.6719616127582977</v>
       </c>
       <c r="E5" t="n">
-        <v>1.570796376471635</v>
+        <v>1.570796377121443</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6689605833562158</v>
+        <v>-0.6674214255595712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9473272603030626</v>
+        <v>0.9489610112883384</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1847808224126647</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6723938491663034</v>
+        <v>0.7249361535492151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7136212679793076</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796381335017</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6234690754582686</v>
+        <v>-0.6218353262550274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.899384632600809</v>
+        <v>1.900875918751935</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03648454082200218</v>
+        <v>0.05335115204042857</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18289791356248</v>
+        <v>1.199938781730575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3514135960163092</v>
+        <v>0.3175060894984869</v>
       </c>
       <c r="E7" t="n">
-        <v>1.570796335231478</v>
+        <v>1.570796342143612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3285882746238378</v>
+        <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.638520741006903</v>
+        <v>1.639788217465948</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05878679738128223</v>
+        <v>0.07454629022105426</v>
       </c>
       <c r="C8" t="n">
-        <v>1.106148632147423</v>
+        <v>1.120803451180303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4058606917710165</v>
+        <v>0.3754463736539357</v>
       </c>
       <c r="E8" t="n">
-        <v>1.570796329546644</v>
+        <v>1.570796332944535</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06772438770505351</v>
+        <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.360510694198072</v>
+        <v>1.361539650321506</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08255494464039051</v>
+        <v>0.09713455002854179</v>
       </c>
       <c r="C9" t="n">
-        <v>1.024354746499346</v>
+        <v>1.036466685305622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4638865057189854</v>
+        <v>0.437194977539862</v>
       </c>
       <c r="E9" t="n">
-        <v>1.570796323488156</v>
+        <v>1.570796323140818</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.210285654121368</v>
+        <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.082500647389242</v>
+        <v>1.083291083177064</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1063230918994988</v>
+        <v>0.1197228098360293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9425608608512694</v>
+        <v>0.9521299194309416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5219123196669542</v>
+        <v>0.4989435814257883</v>
       </c>
       <c r="E10" t="n">
-        <v>1.570796317429667</v>
+        <v>1.570796313337101</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4882956959477893</v>
+        <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8216367557953357</v>
+        <v>0.8222033818910772</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1286253484587788</v>
+        <v>0.140917948016655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8658115794362121</v>
+        <v>0.8729945888806701</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5763594154216616</v>
+        <v>0.5568838655812371</v>
       </c>
       <c r="E11" t="n">
-        <v>1.570796311744834</v>
+        <v>1.570796304138024</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7491595828665731</v>
+        <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5934191437306482</v>
+        <v>0.5937899691995894</v>
       </c>
       <c r="B12" t="n">
-        <v>0.148136549125586</v>
+        <v>0.1594605826197359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7986672244808241</v>
+        <v>0.8037627911880737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6239926317363989</v>
+        <v>0.6075731089698566</v>
       </c>
       <c r="E12" t="n">
-        <v>1.570796306771439</v>
+        <v>1.570796296090182</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9773771908412165</v>
+        <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4100558737082065</v>
+        <v>0.410269381593821</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1638129797216424</v>
+        <v>0.1743588110469463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.744719554199015</v>
+        <v>0.7481379483041316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6622639212575638</v>
+        <v>0.6482997879435473</v>
       </c>
       <c r="E13" t="n">
-        <v>1.570796302775525</v>
+        <v>1.570796289624078</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.160740457577478</v>
+        <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2788169155391391</v>
+        <v>0.2789178261977563</v>
       </c>
       <c r="B14" t="n">
-        <v>0.175033102590221</v>
+        <v>0.1850219497284968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7061074807855859</v>
+        <v>0.7083254688063935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6896559074712136</v>
+        <v>0.6774491749365862</v>
       </c>
       <c r="E14" t="n">
-        <v>1.570796299915521</v>
+        <v>1.570796284996081</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.291979413394523</v>
+        <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2003881154320393</v>
+        <v>0.2004217376457329</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1817382821033287</v>
+        <v>0.1913942737993129</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6830327884098565</v>
+        <v>0.6845334101078362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7060254416496176</v>
+        <v>0.6948689371597545</v>
       </c>
       <c r="E15" t="n">
-        <v>1.570796298206374</v>
+        <v>1.570796282230376</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.370408212096044</v>
+        <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.167225165092344</v>
+        <v>0.1672303349600339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18457351016889</v>
+        <v>0.194088756775214</v>
       </c>
       <c r="C16" t="n">
-        <v>0.673275851209298</v>
+        <v>0.6744731406657185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7129471597978114</v>
+        <v>0.7022347352944619</v>
       </c>
       <c r="E16" t="n">
-        <v>1.570796297483676</v>
+        <v>1.570796281060922</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.403571161841407</v>
+        <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1619075708216884</v>
+        <v>0.1619081784284635</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1850281317379298</v>
+        <v>0.1945208102290914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6717113512831652</v>
+        <v>0.6728600021904421</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7140570396001484</v>
+        <v>0.7034158221868742</v>
       </c>
       <c r="E17" t="n">
-        <v>1.570796297367793</v>
+        <v>1.570796280873402</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.408888756016757</v>
+        <v>-1.40888814573956</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,341 +423,392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>0.1619081784284657</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>0.1945208102290912</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>0.672860002190442</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.7034158221868738</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796280873402</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>-1.408888145739562</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2212251060624558</v>
+      </c>
+      <c r="B2" t="n">
         <v>0.2074942785077096</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1934383557349265</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.6758762528771421</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.7014819866207826</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796286790826</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-1.363302046435018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4424502121249115</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.4117502296915038</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1885882419516801</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.6893910556777709</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.6928171211837666</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796313304808</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-1.159046098722391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6636753181873674</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.6991189600253006</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1817645923503434</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.7084051000618862</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.6806264781953137</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796350607462</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.8716773732721977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8849004242498231</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.9033749112090953</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.176914478567097</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.7219199028625151</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.6719616127582977</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796377121443</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.6674214255595712</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.106125530312279</v>
+      </c>
+      <c r="B6" t="n">
         <v>0.9489610112883384</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1758320240729323</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.7249361535492151</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.6700277771922065</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796383038867</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.6218353262550274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1.264473243688114</v>
+      </c>
+      <c r="B7" t="n">
         <v>1.900875918751935</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.05335115204042857</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1.199938781730575</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.3175060894984869</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.570796342143612</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.3300795436886814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1.475218784302799</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.639788217465948</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.07454629022105426</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.120803451180303</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.3754463736539357</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.570796332944535</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.06899185004407737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>1.685964324917485</v>
+      </c>
+      <c r="B9" t="n">
         <v>1.361539650321506</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.09713455002854179</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1.036466685305622</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.437194977539862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.570796323140818</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.2092567089567264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1.896709865532171</v>
+      </c>
+      <c r="B10" t="n">
         <v>1.083291083177064</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1197228098360293</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.9521299194309416</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.4989435814257883</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.570796313337101</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.4875052679575304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2.107455406146856</v>
+      </c>
+      <c r="B11" t="n">
         <v>0.8222033818910772</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.140917948016655</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.8729945888806701</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.5568838655812371</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1.570796304138024</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.748592961602134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>2.318200946761542</v>
+      </c>
+      <c r="B12" t="n">
         <v>0.5937899691995894</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1594605826197359</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.8037627911880737</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.6075731089698566</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1.570796296090182</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.977006367608534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2.528946487376227</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.410269381593821</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.1743588110469463</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.7481379483041316</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.6482997879435473</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.570796289624078</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-1.160526949843115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>2.739692027990913</v>
+      </c>
+      <c r="B14" t="n">
         <v>0.2789178261977563</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1850219497284968</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.7083254688063935</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.6774491749365862</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.570796284996081</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-1.291878501394849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2.950437568605599</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.2004217376457329</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1913942737993129</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.6845334101078362</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.6948689371597545</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.570796282230376</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-1.370374587649487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>3.161183109220284</v>
+      </c>
+      <c r="B16" t="n">
         <v>0.1672303349600339</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.194088756775214</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.6744731406657185</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.7022347352944619</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>1.570796281060922</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-1.403565989363758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>3.37192864983497</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.1619081784284635</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.1945208102290914</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.6728600021904421</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.7034158221868742</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1.570796280873402</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-1.40888814573956</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1619081784284657</v>
+        <v>-0.9489610112883385</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1945208102290912</v>
+        <v>1.394964302721964</v>
       </c>
       <c r="D1" t="n">
-        <v>0.672860002190442</v>
+        <v>0.7249361535492151</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7034158221868738</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796280873402</v>
+        <v>-5.624397036996243e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>-1.408888145739562</v>
+        <v>-0.6218353262550272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2212251060624558</v>
+        <v>0.2202947803889398</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2074942785077096</v>
+        <v>-0.9943554056026752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1934383557349265</v>
+        <v>1.393881277062689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6758762528771421</v>
+        <v>0.721918637663874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014819866207826</v>
+        <v>0.6719623020239368</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796286790826</v>
+        <v>-5.102013922453352e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.363302046435018</v>
+        <v>-0.5764409309963349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4424502121249115</v>
+        <v>0.4405895607778795</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4117502296915038</v>
+        <v>-1.19775238786194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1885882419516801</v>
+        <v>1.389028604081073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6893910556777709</v>
+        <v>0.708398165934528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6928171211837666</v>
+        <v>0.6806302558279879</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796313304808</v>
+        <v>-2.761391271199898e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.159046098722391</v>
+        <v>-0.3730439445057301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6636753181873674</v>
+        <v>0.6608843411668193</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6991189600253006</v>
+        <v>-1.483912630473311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1817645923503434</v>
+        <v>1.382201353930612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7084051000618862</v>
+        <v>0.6893761459059412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6806264781953137</v>
+        <v>0.6928252438556356</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796350607462</v>
+        <v>5.316425744084086e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8716773732721977</v>
+        <v>-0.08688369594126644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8849004242498231</v>
+        <v>0.8811791215557591</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9033749112090953</v>
+        <v>-1.687309612732577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.176914478567097</v>
+        <v>1.377348680948996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7219199028625151</v>
+        <v>0.6758556741765951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6719616127582977</v>
+        <v>0.7014931976596867</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796377121443</v>
+        <v>2.872265225661863e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6674214255595712</v>
+        <v>0.116513290549339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106125530312279</v>
+        <v>1.101473901944699</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9489610112883384</v>
+        <v>-1.732704007046913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1758320240729323</v>
+        <v>1.37626565528972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7249361535492151</v>
+        <v>0.672838158291254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.7034277224914169</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796383038867</v>
+        <v>3.394648340204753e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6218353262550274</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.264473243688114</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.900875918751935</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05335115204042857</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.199938781730575</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3175060894984869</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.570796342143612</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3300795436886814</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.475218784302799</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.639788217465948</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07454629022105426</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.120803451180303</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3754463736539357</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.570796332944535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06899185004407737</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.685964324917485</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.361539650321506</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09713455002854179</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.036466685305622</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.437194977539862</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.570796323140818</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.2092567089567264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.896709865532171</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.083291083177064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1197228098360293</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9521299194309416</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4989435814257883</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.570796313337101</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.4875052679575304</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.107455406146856</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8222033818910772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.140917948016655</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.8729945888806701</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5568838655812371</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.570796304138024</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.748592961602134</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.318200946761542</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5937899691995894</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1594605826197359</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8037627911880737</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6075731089698566</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.570796296090182</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.977006367608534</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.528946487376227</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.410269381593821</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1743588110469463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7481379483041316</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6482997879435473</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.570796289624078</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1.160526949843115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.739692027990913</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2789178261977563</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1850219497284968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7083254688063935</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6774491749365862</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.570796284996081</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-1.291878501394849</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2.950437568605599</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2004217376457329</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1913942737993129</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6845334101078362</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.6948689371597545</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.570796282230376</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-1.370374587649487</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.161183109220284</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1672303349600339</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.194088756775214</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6744731406657185</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7022347352944619</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.570796281060922</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.403565989363758</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3.37192864983497</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1619081784284635</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1945208102290914</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6728600021904421</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7034158221868742</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.570796280873402</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.40888814573956</v>
+        <v>0.1619076858080303</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -435,10 +435,10 @@
         <v>0.7249361535492151</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.90076854960269</v>
       </c>
       <c r="F1" t="n">
-        <v>-5.624397036996243e-08</v>
+        <v>-1.570796383038867</v>
       </c>
       <c r="G1" t="n">
         <v>-0.6218353262550272</v>
@@ -458,10 +458,10 @@
         <v>0.721918637663874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6719623020239368</v>
+        <v>0.8988340247709597</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.102013922453352e-08</v>
+        <v>-1.570796377815036</v>
       </c>
       <c r="G2" t="n">
         <v>-0.5764409309963349</v>
@@ -481,10 +481,10 @@
         <v>0.708398165934528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6806302558279879</v>
+        <v>0.8901660709669087</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.761391271199898e-08</v>
+        <v>-1.570796354408809</v>
       </c>
       <c r="G3" t="n">
         <v>-0.3730439445057301</v>
@@ -504,10 +504,10 @@
         <v>0.6893761459059412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6928252438556356</v>
+        <v>0.877971082939261</v>
       </c>
       <c r="F4" t="n">
-        <v>5.316425744084086e-09</v>
+        <v>-1.570796321478471</v>
       </c>
       <c r="G4" t="n">
         <v>-0.08688369594126644</v>
@@ -527,10 +527,10 @@
         <v>0.6758556741765951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7014931976596867</v>
+        <v>0.8693031291352099</v>
       </c>
       <c r="F5" t="n">
-        <v>2.872265225661863e-08</v>
+        <v>-1.570796298072244</v>
       </c>
       <c r="G5" t="n">
         <v>0.116513290549339</v>
@@ -550,10 +550,10 @@
         <v>0.672838158291254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7034277224914169</v>
+        <v>0.8673686043034796</v>
       </c>
       <c r="F6" t="n">
-        <v>3.394648340204753e-08</v>
+        <v>-1.570796292848413</v>
       </c>
       <c r="G6" t="n">
         <v>0.1619076858080303</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9489610112883385</v>
+        <v>0.9489610112883385</v>
       </c>
       <c r="C1" t="n">
-        <v>1.394964302721964</v>
+        <v>0.1758320240729323</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7249361535492151</v>
+        <v>-0.7249361535492151</v>
       </c>
       <c r="E1" t="n">
-        <v>0.90076854960269</v>
+        <v>0.6700277771922065</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796383038867</v>
+        <v>1.570796383038867</v>
       </c>
       <c r="G1" t="n">
         <v>-0.6218353262550272</v>
@@ -446,116 +446,369 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2202947803889398</v>
+        <v>0.206526356614631</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9943554056026752</v>
+        <v>0.9506995464141992</v>
       </c>
       <c r="C2" t="n">
-        <v>1.393881277062689</v>
+        <v>0.1758735022814049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721918637663874</v>
+        <v>-0.7248205873556631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8988340247709597</v>
+        <v>0.6701018665026294</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796377815036</v>
+        <v>1.570796382838802</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5764409309963349</v>
+        <v>-0.6200967910929992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4405895607778795</v>
+        <v>0.4130527132292621</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.19775238786194</v>
+        <v>0.961541846730508</v>
       </c>
       <c r="C3" t="n">
-        <v>1.389028604081073</v>
+        <v>0.1761321793631349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708398165934528</v>
+        <v>-0.7240998637083433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8901660709669087</v>
+        <v>0.6705639213336673</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796354408809</v>
+        <v>1.570796381591107</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3730439445057301</v>
+        <v>-0.6092544905511341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6608843411668193</v>
+        <v>0.6195790698438931</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.483912630473311</v>
+        <v>0.9871833712480381</v>
       </c>
       <c r="C4" t="n">
-        <v>1.382201353930612</v>
+        <v>0.1767439383570568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6893761459059412</v>
+        <v>-0.7223953865647509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.877971082939261</v>
+        <v>0.6716566590307295</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796321478471</v>
+        <v>1.570796378640369</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08688369594126644</v>
+        <v>-0.5836129655001743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8811791215557591</v>
+        <v>0.8261054264585241</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.687309612732577</v>
+        <v>1.03009065733366</v>
       </c>
       <c r="C5" t="n">
-        <v>1.377348680948996</v>
+        <v>0.1777676262485357</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6758556741765951</v>
+        <v>-0.7195431970088403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8693031291352099</v>
+        <v>0.67348519340482</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796298072244</v>
+        <v>1.570796373702746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.116513290549339</v>
+        <v>-0.5407056785219373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.101473901944699</v>
+        <v>1.032631783073155</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.732704007046913</v>
+        <v>1.090039474317657</v>
       </c>
       <c r="C6" t="n">
-        <v>1.37626565528972</v>
+        <v>0.1791978933116294</v>
       </c>
       <c r="D6" t="n">
-        <v>0.672838158291254</v>
+        <v>-0.7155582003966157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8673686043034796</v>
+        <v>0.6760399686549388</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796292848413</v>
+        <v>1.570796366804042</v>
       </c>
       <c r="G6" t="n">
+        <v>-0.4807568602908032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.239158139687786</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.164652977101047</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1809780324513496</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.7105983935017208</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6792196932904817</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.570796358217776</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4061433559552025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.445684496302417</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.249939859762893</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1830128185459232</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.7049290916610294</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6828542740536421</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.570796348403254</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.3208564715191031</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.652210852917048</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.340832509167626</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1851813477890544</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.6988871559202345</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6867277498418117</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.57079633794364</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.2299638202234981</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.858737209531679</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.431725158572359</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1873498770321855</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.6928452201794398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6906012256299814</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.570796327484026</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.1390711689278932</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.06526356614631</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.517012041234205</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1893846631267591</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.6871759183387484</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6942358063931418</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796317669504</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.05378428449179418</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.271789922760941</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.591625544017594</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1911648022664793</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.6822161114438535</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6974155310286847</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.570796309083238</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0208292198438067</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.478316279375572</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.651574361001592</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.192595069329573</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.6782311148316289</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6999703062788034</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.570796302184534</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.08077803807494088</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.684842635990203</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.694481647087213</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.193618757221052</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.6753789252757183</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.701798840652894</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.570796297246911</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1236853250531775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.891368992604835</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.720123171604743</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1942305162149738</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.6736744481321258</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7028915783499562</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.570796294296173</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1493268501041367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.097895349219466</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.730965471921052</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1944891932967038</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.6729537244848061</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7033536331809941</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.570796293048478</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1601691506460023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.304421705834097</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.732704007046913</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1945306715051764</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.672838158291254</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7034277224914169</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.570796292848413</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.1619076858080303</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_6_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,390 +426,160 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9489610112883385</v>
+        <v>-0.6038681247083841</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1758320240729323</v>
+        <v>1.011972070139409</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.7249361535492151</v>
+        <v>1.736020991092194</v>
       </c>
       <c r="E1" t="n">
-        <v>0.6700277771922065</v>
+        <v>0.646416795561004</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796383038867</v>
+        <v>1.763209098886267</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.6218353262550272</v>
+        <v>-1.742845003477513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.206526356614631</v>
+        <v>0.2139818120971757</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9506995464141992</v>
+        <v>-0.5767326820116658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1758735022814049</v>
+        <v>1.034387335550012</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7248205873556631</v>
+        <v>1.760499862376439</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6701018665026294</v>
+        <v>0.6587187916436894</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796382838802</v>
+        <v>1.73152635605686</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6200967910929992</v>
+        <v>-1.706593423732907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4130527132292621</v>
+        <v>0.4279636241943514</v>
       </c>
       <c r="B3" t="n">
-        <v>0.961541846730508</v>
+        <v>-0.4434150722408322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1761321793631349</v>
+        <v>1.144514509089064</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7240998637083433</v>
+        <v>1.880765621294684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6705639213336673</v>
+        <v>0.7191590332673181</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796381591107</v>
+        <v>1.575867663025426</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6092544905511341</v>
+        <v>-1.528487836292018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6195790698438931</v>
+        <v>0.6419454362915271</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9871833712480381</v>
+        <v>-0.2216123232415691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1767439383570568</v>
+        <v>1.327734939401824</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7223953865647509</v>
+        <v>2.080853786574596</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6716566590307295</v>
+        <v>0.8197144795083995</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796378640369</v>
+        <v>1.31689567815897</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5836129655001743</v>
+        <v>-1.232170575770894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8261054264585241</v>
+        <v>0.8559272483887028</v>
       </c>
       <c r="B5" t="n">
-        <v>1.03009065733366</v>
+        <v>0.0001904257576936796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1777676262485357</v>
+        <v>1.510955369714583</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7195431970088403</v>
+        <v>2.280941951854508</v>
       </c>
       <c r="E5" t="n">
-        <v>0.67348519340482</v>
+        <v>0.9202699257494806</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796373702746</v>
+        <v>1.057923693292513</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5407056785219373</v>
+        <v>-0.9358533152497694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.032631783073155</v>
+        <v>1.069909060485879</v>
       </c>
       <c r="B6" t="n">
-        <v>1.090039474317657</v>
+        <v>0.1335080355285283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1791978933116294</v>
+        <v>1.621082543253636</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7155582003966157</v>
+        <v>2.401207710772754</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6760399686549388</v>
+        <v>0.9807101673731097</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796366804042</v>
+        <v>0.9022650002610781</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4807568602908032</v>
+        <v>-0.757747727808879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.239158139687786</v>
+        <v>1.283890872583054</v>
       </c>
       <c r="B7" t="n">
-        <v>1.164652977101047</v>
+        <v>0.1606434782252466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1809780324513496</v>
+        <v>1.643497808664239</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7105983935017208</v>
+        <v>2.425686582056998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6792196932904817</v>
+        <v>0.9930121634557948</v>
       </c>
       <c r="F7" t="n">
-        <v>1.570796358217776</v>
+        <v>0.8705822574316724</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4061433559552025</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1.445684496302417</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.249939859762893</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1830128185459232</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.7049290916610294</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.6828542740536421</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.570796348403254</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.3208564715191031</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1.652210852917048</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.340832509167626</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1851813477890544</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.6988871559202345</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6867277498418117</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.57079633794364</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.2299638202234981</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1.858737209531679</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.431725158572359</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1873498770321855</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.6928452201794398</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6906012256299814</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.570796327484026</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.1390711689278932</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.06526356614631</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.517012041234205</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1893846631267591</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.6871759183387484</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6942358063931418</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.570796317669504</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.05378428449179418</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.271789922760941</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.591625544017594</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1911648022664793</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.6822161114438535</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6974155310286847</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.570796309083238</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0208292198438067</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.478316279375572</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.651574361001592</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.192595069329573</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.6782311148316289</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.6999703062788034</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.570796302184534</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.08077803807494088</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.684842635990203</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.694481647087213</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.193618757221052</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.6753789252757183</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.701798840652894</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.570796297246911</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1236853250531775</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2.891368992604835</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.720123171604743</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1942305162149738</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.6736744481321258</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7028915783499562</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.570796294296173</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1493268501041367</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.097895349219466</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.730965471921052</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1944891932967038</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.6729537244848061</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7033536331809941</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.570796293048478</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1601691506460023</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3.304421705834097</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.732704007046913</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1945306715051764</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.672838158291254</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7034277224914169</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.570796292848413</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1619076858080303</v>
+        <v>-0.7214961480642743</v>
       </c>
     </row>
   </sheetData>
